--- a/observations/TSize-vs-Collisions.xlsx
+++ b/observations/TSize-vs-Collisions.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunal\OneDrive\Documents\parallel computing\Parallel-Hashing-Implementation-master\observations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1176" yWindow="0" windowWidth="21864" windowHeight="9780" tabRatio="991"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,34 +27,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t xml:space="preserve">Table Size</t>
+    <t>Table Size</t>
   </si>
   <si>
-    <t xml:space="preserve">Average Collisions</t>
+    <t>Load factor</t>
   </si>
   <si>
-    <t xml:space="preserve">Collisions1</t>
+    <t>Collision Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">Collisions2</t>
+    <t>Observation 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Collisions3</t>
+    <t>Observation 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Collisions4</t>
+    <t>Observation 3</t>
+  </si>
+  <si>
+    <t>Observation 4</t>
+  </si>
+  <si>
+    <t>Average Number of Collisions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -56,17 +66,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +77,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -86,49 +85,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -187,19 +159,77 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="line"/>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -210,34 +240,159 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average Collisions</c:v>
+                  <c:v>Average Number of Collisions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="004586"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:yVal>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$43</c:f>
               <c:numCache>
@@ -371,14 +526,28 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A375-4E2E-BABD-81DFA71188BA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="78176008"/>
-        <c:axId val="35801857"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="78176008"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="594133328"/>
+        <c:axId val="594134576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="594133328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,48 +555,122 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Table Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35801857"/>
+        <c:crossAx val="594134576"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="3"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="35801857"/>
+        <c:axId val="594134576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,92 +678,733 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Number of Collisions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
+          <a:noFill/>
           <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78176008"/>
+        <c:crossAx val="594133328"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln>
-      <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>472680</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>542880</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7219440" y="361080"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -533,933 +1417,2274 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="all_collisions"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1">
+            <v>1</v>
+          </cell>
+          <cell r="C1">
+            <v>2</v>
+          </cell>
+          <cell r="D1">
+            <v>3</v>
+          </cell>
+          <cell r="E1">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>190</v>
+          </cell>
+          <cell r="B2">
+            <v>5971</v>
+          </cell>
+          <cell r="C2">
+            <v>5886</v>
+          </cell>
+          <cell r="D2">
+            <v>5444</v>
+          </cell>
+          <cell r="E2">
+            <v>5918</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>200</v>
+          </cell>
+          <cell r="B3">
+            <v>4386</v>
+          </cell>
+          <cell r="C3">
+            <v>5234</v>
+          </cell>
+          <cell r="D3">
+            <v>4609</v>
+          </cell>
+          <cell r="E3">
+            <v>4848</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>210</v>
+          </cell>
+          <cell r="B4">
+            <v>4228</v>
+          </cell>
+          <cell r="C4">
+            <v>4078</v>
+          </cell>
+          <cell r="D4">
+            <v>4057</v>
+          </cell>
+          <cell r="E4">
+            <v>4063</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>220</v>
+          </cell>
+          <cell r="B5">
+            <v>2580</v>
+          </cell>
+          <cell r="C5">
+            <v>3322</v>
+          </cell>
+          <cell r="D5">
+            <v>2779</v>
+          </cell>
+          <cell r="E5">
+            <v>3675</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>230</v>
+          </cell>
+          <cell r="B6">
+            <v>2397</v>
+          </cell>
+          <cell r="C6">
+            <v>2700</v>
+          </cell>
+          <cell r="D6">
+            <v>2982</v>
+          </cell>
+          <cell r="E6">
+            <v>3290</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>240</v>
+          </cell>
+          <cell r="B7">
+            <v>3128</v>
+          </cell>
+          <cell r="C7">
+            <v>2024</v>
+          </cell>
+          <cell r="D7">
+            <v>2015</v>
+          </cell>
+          <cell r="E7">
+            <v>2157</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>250</v>
+          </cell>
+          <cell r="B8">
+            <v>1799</v>
+          </cell>
+          <cell r="C8">
+            <v>1976</v>
+          </cell>
+          <cell r="D8">
+            <v>2120</v>
+          </cell>
+          <cell r="E8">
+            <v>2138</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>260</v>
+          </cell>
+          <cell r="B9">
+            <v>1747</v>
+          </cell>
+          <cell r="C9">
+            <v>2470</v>
+          </cell>
+          <cell r="D9">
+            <v>1710</v>
+          </cell>
+          <cell r="E9">
+            <v>1394</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>270</v>
+          </cell>
+          <cell r="B10">
+            <v>2135</v>
+          </cell>
+          <cell r="C10">
+            <v>1487</v>
+          </cell>
+          <cell r="D10">
+            <v>1346</v>
+          </cell>
+          <cell r="E10">
+            <v>1380</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>280</v>
+          </cell>
+          <cell r="B11">
+            <v>1387</v>
+          </cell>
+          <cell r="C11">
+            <v>1718</v>
+          </cell>
+          <cell r="D11">
+            <v>1612</v>
+          </cell>
+          <cell r="E11">
+            <v>1616</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>290</v>
+          </cell>
+          <cell r="B12">
+            <v>1110</v>
+          </cell>
+          <cell r="C12">
+            <v>1941</v>
+          </cell>
+          <cell r="D12">
+            <v>1251</v>
+          </cell>
+          <cell r="E12">
+            <v>917</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>300</v>
+          </cell>
+          <cell r="B13">
+            <v>773</v>
+          </cell>
+          <cell r="C13">
+            <v>1167</v>
+          </cell>
+          <cell r="D13">
+            <v>1064</v>
+          </cell>
+          <cell r="E13">
+            <v>1525</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>310</v>
+          </cell>
+          <cell r="B14">
+            <v>760</v>
+          </cell>
+          <cell r="C14">
+            <v>1051</v>
+          </cell>
+          <cell r="D14">
+            <v>1343</v>
+          </cell>
+          <cell r="E14">
+            <v>1051</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>320</v>
+          </cell>
+          <cell r="B15">
+            <v>688</v>
+          </cell>
+          <cell r="C15">
+            <v>667</v>
+          </cell>
+          <cell r="D15">
+            <v>703</v>
+          </cell>
+          <cell r="E15">
+            <v>606</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>330</v>
+          </cell>
+          <cell r="B16">
+            <v>871</v>
+          </cell>
+          <cell r="C16">
+            <v>490</v>
+          </cell>
+          <cell r="D16">
+            <v>610</v>
+          </cell>
+          <cell r="E16">
+            <v>631</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>340</v>
+          </cell>
+          <cell r="B17">
+            <v>1123</v>
+          </cell>
+          <cell r="C17">
+            <v>555</v>
+          </cell>
+          <cell r="D17">
+            <v>413</v>
+          </cell>
+          <cell r="E17">
+            <v>639</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>350</v>
+          </cell>
+          <cell r="B18">
+            <v>557</v>
+          </cell>
+          <cell r="C18">
+            <v>548</v>
+          </cell>
+          <cell r="D18">
+            <v>803</v>
+          </cell>
+          <cell r="E18">
+            <v>727</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>360</v>
+          </cell>
+          <cell r="B19">
+            <v>502</v>
+          </cell>
+          <cell r="C19">
+            <v>800</v>
+          </cell>
+          <cell r="D19">
+            <v>681</v>
+          </cell>
+          <cell r="E19">
+            <v>386</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>370</v>
+          </cell>
+          <cell r="B20">
+            <v>476</v>
+          </cell>
+          <cell r="C20">
+            <v>366</v>
+          </cell>
+          <cell r="D20">
+            <v>543</v>
+          </cell>
+          <cell r="E20">
+            <v>505</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>380</v>
+          </cell>
+          <cell r="B21">
+            <v>427</v>
+          </cell>
+          <cell r="C21">
+            <v>324</v>
+          </cell>
+          <cell r="D21">
+            <v>553</v>
+          </cell>
+          <cell r="E21">
+            <v>252</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>390</v>
+          </cell>
+          <cell r="B22">
+            <v>303</v>
+          </cell>
+          <cell r="C22">
+            <v>465</v>
+          </cell>
+          <cell r="D22">
+            <v>426</v>
+          </cell>
+          <cell r="E22">
+            <v>362</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>400</v>
+          </cell>
+          <cell r="B23">
+            <v>276</v>
+          </cell>
+          <cell r="C23">
+            <v>175</v>
+          </cell>
+          <cell r="D23">
+            <v>396</v>
+          </cell>
+          <cell r="E23">
+            <v>273</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>410</v>
+          </cell>
+          <cell r="B24">
+            <v>533</v>
+          </cell>
+          <cell r="C24">
+            <v>335</v>
+          </cell>
+          <cell r="D24">
+            <v>299</v>
+          </cell>
+          <cell r="E24">
+            <v>600</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>420</v>
+          </cell>
+          <cell r="B25">
+            <v>249</v>
+          </cell>
+          <cell r="C25">
+            <v>355</v>
+          </cell>
+          <cell r="D25">
+            <v>415</v>
+          </cell>
+          <cell r="E25">
+            <v>350</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>430</v>
+          </cell>
+          <cell r="B26">
+            <v>238</v>
+          </cell>
+          <cell r="C26">
+            <v>447</v>
+          </cell>
+          <cell r="D26">
+            <v>306</v>
+          </cell>
+          <cell r="E26">
+            <v>323</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>440</v>
+          </cell>
+          <cell r="B27">
+            <v>164</v>
+          </cell>
+          <cell r="C27">
+            <v>226</v>
+          </cell>
+          <cell r="D27">
+            <v>315</v>
+          </cell>
+          <cell r="E27">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>450</v>
+          </cell>
+          <cell r="B28">
+            <v>317</v>
+          </cell>
+          <cell r="C28">
+            <v>137</v>
+          </cell>
+          <cell r="D28">
+            <v>138</v>
+          </cell>
+          <cell r="E28">
+            <v>317</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>460</v>
+          </cell>
+          <cell r="B29">
+            <v>291</v>
+          </cell>
+          <cell r="C29">
+            <v>196</v>
+          </cell>
+          <cell r="D29">
+            <v>251</v>
+          </cell>
+          <cell r="E29">
+            <v>152</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>470</v>
+          </cell>
+          <cell r="B30">
+            <v>183</v>
+          </cell>
+          <cell r="C30">
+            <v>181</v>
+          </cell>
+          <cell r="D30">
+            <v>637</v>
+          </cell>
+          <cell r="E30">
+            <v>144</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>480</v>
+          </cell>
+          <cell r="B31">
+            <v>313</v>
+          </cell>
+          <cell r="C31">
+            <v>130</v>
+          </cell>
+          <cell r="D31">
+            <v>211</v>
+          </cell>
+          <cell r="E31">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>490</v>
+          </cell>
+          <cell r="B32">
+            <v>77</v>
+          </cell>
+          <cell r="C32">
+            <v>168</v>
+          </cell>
+          <cell r="D32">
+            <v>99</v>
+          </cell>
+          <cell r="E32">
+            <v>159</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>500</v>
+          </cell>
+          <cell r="B33">
+            <v>174</v>
+          </cell>
+          <cell r="C33">
+            <v>192</v>
+          </cell>
+          <cell r="D33">
+            <v>88</v>
+          </cell>
+          <cell r="E33">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>510</v>
+          </cell>
+          <cell r="B34">
+            <v>82</v>
+          </cell>
+          <cell r="C34">
+            <v>148</v>
+          </cell>
+          <cell r="D34">
+            <v>278</v>
+          </cell>
+          <cell r="E34">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>520</v>
+          </cell>
+          <cell r="B35">
+            <v>162</v>
+          </cell>
+          <cell r="C35">
+            <v>100</v>
+          </cell>
+          <cell r="D35">
+            <v>177</v>
+          </cell>
+          <cell r="E35">
+            <v>364</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>530</v>
+          </cell>
+          <cell r="B36">
+            <v>110</v>
+          </cell>
+          <cell r="C36">
+            <v>205</v>
+          </cell>
+          <cell r="D36">
+            <v>128</v>
+          </cell>
+          <cell r="E36">
+            <v>160</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>540</v>
+          </cell>
+          <cell r="B37">
+            <v>105</v>
+          </cell>
+          <cell r="C37">
+            <v>86</v>
+          </cell>
+          <cell r="D37">
+            <v>73</v>
+          </cell>
+          <cell r="E37">
+            <v>195</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>550</v>
+          </cell>
+          <cell r="B38">
+            <v>141</v>
+          </cell>
+          <cell r="C38">
+            <v>54</v>
+          </cell>
+          <cell r="D38">
+            <v>79</v>
+          </cell>
+          <cell r="E38">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>560</v>
+          </cell>
+          <cell r="B39">
+            <v>90</v>
+          </cell>
+          <cell r="C39">
+            <v>75</v>
+          </cell>
+          <cell r="D39">
+            <v>59</v>
+          </cell>
+          <cell r="E39">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>570</v>
+          </cell>
+          <cell r="B40">
+            <v>130</v>
+          </cell>
+          <cell r="C40">
+            <v>196</v>
+          </cell>
+          <cell r="D40">
+            <v>147</v>
+          </cell>
+          <cell r="E40">
+            <v>91</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>580</v>
+          </cell>
+          <cell r="B41">
+            <v>37</v>
+          </cell>
+          <cell r="C41">
+            <v>76</v>
+          </cell>
+          <cell r="D41">
+            <v>66</v>
+          </cell>
+          <cell r="E41">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>590</v>
+          </cell>
+          <cell r="B42">
+            <v>95</v>
+          </cell>
+          <cell r="C42">
+            <v>41</v>
+          </cell>
+          <cell r="D42">
+            <v>82</v>
+          </cell>
+          <cell r="E42">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>600</v>
+          </cell>
+          <cell r="B43">
+            <v>47</v>
+          </cell>
+          <cell r="C43">
+            <v>44</v>
+          </cell>
+          <cell r="D43">
+            <v>152</v>
+          </cell>
+          <cell r="E43">
+            <v>214</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3367346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.35204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5546875"/>
+    <col min="2" max="2" width="17.5546875"/>
+    <col min="3" max="3" width="13.33203125"/>
+    <col min="4" max="5" width="9.33203125"/>
+    <col min="6" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>190</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C2:F2),0)</f>
+      <c r="B2">
+        <f t="shared" ref="B2:B43" si="0">ROUND(AVERAGE(C2:F2),0)</f>
         <v>5805</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>5971</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>5886</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>5444</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>5918</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="G2" s="2">
+        <f>409/(A2*3)</f>
+        <v>0.71754385964912282</v>
+      </c>
+      <c r="H2" s="3">
+        <f>B2/100000</f>
+        <v>5.8049999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>200</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C3:F3),0)</f>
+      <c r="B3">
+        <f t="shared" si="0"/>
         <v>4769</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>4386</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>5234</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>4609</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>4848</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G43" si="1">409/(A3*3)</f>
+        <v>0.68166666666666664</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H43" si="2">B3/100000</f>
+        <v>4.7690000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>210</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C4:F4),0)</f>
+      <c r="B4">
+        <f t="shared" si="0"/>
         <v>4107</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>4228</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>4078</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>4057</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>4063</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.64920634920634923</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1070000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>220</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C5:F5),0)</f>
+      <c r="B5">
+        <f t="shared" si="0"/>
         <v>3089</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>2580</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>3322</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>2779</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>3675</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.61969696969696975</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0890000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>230</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C6:F6),0)</f>
+      <c r="B6">
+        <f t="shared" si="0"/>
         <v>2842</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>2397</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>2700</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>2982</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>3290</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59275362318840574</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8420000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>240</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C7:F7),0)</f>
+      <c r="B7">
+        <f t="shared" si="0"/>
         <v>2331</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>3128</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>2024</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>2015</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>2157</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>2.3310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>250</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C8:F8),0)</f>
+      <c r="B8">
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>1799</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>1976</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>2120</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>2138</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54533333333333334</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0080000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>260</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C9:F9),0)</f>
+      <c r="B9">
+        <f t="shared" si="0"/>
         <v>1830</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>1747</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>2470</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>1710</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>1394</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.52435897435897438</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>270</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C10:F10),0)</f>
+      <c r="B10">
+        <f t="shared" si="0"/>
         <v>1587</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>2135</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>1487</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>1346</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>1380</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.50493827160493832</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5869999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>280</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C11:F11),0)</f>
+      <c r="B11">
+        <f t="shared" si="0"/>
         <v>1583</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>1387</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>1718</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>1612</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>1616</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4869047619047619</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.583E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>290</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C12:F12),0)</f>
+      <c r="B12">
+        <f t="shared" si="0"/>
         <v>1305</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>1110</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>1941</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>1251</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>917</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47011494252873565</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3050000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>300</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C13:F13),0)</f>
+      <c r="B13">
+        <f t="shared" si="0"/>
         <v>1132</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>773</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>1167</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>1064</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>1525</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45444444444444443</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>1.132E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>310</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C14:F14),0)</f>
+      <c r="B14">
+        <f t="shared" si="0"/>
         <v>1051</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>760</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>1051</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>1343</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1051</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43978494623655912</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>1.051E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>320</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C15:F15),0)</f>
+      <c r="B15">
+        <f t="shared" si="0"/>
         <v>666</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>688</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>667</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>703</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>606</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.42604166666666665</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>6.6600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>330</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C16:F16),0)</f>
+      <c r="B16">
+        <f t="shared" si="0"/>
         <v>651</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>871</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>490</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>610</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>631</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41313131313131313</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>6.5100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>340</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C17:F17),0)</f>
+      <c r="B17">
+        <f t="shared" si="0"/>
         <v>683</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>1123</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>555</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>413</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>639</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.40098039215686276</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>6.8300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>350</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C18:F18),0)</f>
+      <c r="B18">
+        <f t="shared" si="0"/>
         <v>659</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>557</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>548</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>803</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>727</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.38952380952380955</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="2"/>
+        <v>6.5900000000000004E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>360</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C19:F19),0)</f>
+      <c r="B19">
+        <f t="shared" si="0"/>
         <v>592</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>502</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>800</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>681</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>386</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.37870370370370371</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="2"/>
+        <v>5.9199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>370</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C20:F20),0)</f>
+      <c r="B20">
+        <f t="shared" si="0"/>
         <v>473</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>476</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>366</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>543</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>505</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36846846846846848</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="2"/>
+        <v>4.7299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>380</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C21:F21),0)</f>
+      <c r="B21">
+        <f t="shared" si="0"/>
         <v>389</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>427</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>324</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>553</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>252</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.35877192982456141</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>3.8899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>390</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C22:F22),0)</f>
+      <c r="B22">
+        <f t="shared" si="0"/>
         <v>389</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>303</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>465</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>426</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>362</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34957264957264955</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="2"/>
+        <v>3.8899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>400</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C23:F23),0)</f>
+      <c r="B23">
+        <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>276</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>175</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>396</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>273</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34083333333333332</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>410</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C24:F24),0)</f>
+      <c r="B24">
+        <f t="shared" si="0"/>
         <v>442</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>533</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>335</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>299</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>600</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33252032520325203</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="2"/>
+        <v>4.4200000000000003E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>420</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C25:F25),0)</f>
+      <c r="B25">
+        <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>249</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>355</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>415</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>350</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.32460317460317462</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="2"/>
+        <v>3.4199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>430</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C26:F26),0)</f>
+      <c r="B26">
+        <f t="shared" si="0"/>
         <v>329</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>238</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>447</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>306</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>323</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.31705426356589145</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="2"/>
+        <v>3.29E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>440</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C27:F27),0)</f>
+      <c r="B27">
+        <f t="shared" si="0"/>
         <v>276</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>164</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>226</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>315</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30984848484848487</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="2"/>
+        <v>2.7599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>450</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C28:F28),0)</f>
+      <c r="B28">
+        <f t="shared" si="0"/>
         <v>227</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>317</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>137</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>138</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>317</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30296296296296299</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>460</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C29:F29),0)</f>
+      <c r="B29">
+        <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>291</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>196</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>251</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>152</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29637681159420287</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>470</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C30:F30),0)</f>
+      <c r="B30">
+        <f t="shared" si="0"/>
         <v>286</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>183</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>181</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>637</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>144</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="G30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29007092198581558</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>480</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C31:F31),0)</f>
+      <c r="B31">
+        <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>313</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>130</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>211</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>150</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.28402777777777777</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>490</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C32:F32),0)</f>
+      <c r="B32">
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>77</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>168</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>99</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32">
         <v>159</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="G32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27823129251700679</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>500</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C33:F33),0)</f>
+      <c r="B33">
+        <f t="shared" si="0"/>
         <v>137</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>174</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>192</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>88</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="G33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27266666666666667</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>510</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C34:F34),0)</f>
+      <c r="B34">
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>82</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>148</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>278</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="G34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.26732026143790849</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>520</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C35:F35),0)</f>
+      <c r="B35">
+        <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>162</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>100</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>177</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35">
         <v>364</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="G35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.26217948717948719</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>530</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C36:F36),0)</f>
+      <c r="B36">
+        <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>110</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>205</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>128</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>160</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="G36" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25723270440251572</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>540</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C37:F37),0)</f>
+      <c r="B37">
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>105</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>86</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>73</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>195</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="G37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25246913580246916</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="2"/>
+        <v>1.15E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>550</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C38:F38),0)</f>
+      <c r="B38">
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>141</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>54</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>79</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>150</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="G38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24787878787878787</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="2"/>
+        <v>1.06E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>560</v>
       </c>
-      <c r="B39" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C39:F39),0)</f>
+      <c r="B39">
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>90</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>75</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>59</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="G39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24345238095238095</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="2"/>
+        <v>7.1000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>570</v>
       </c>
-      <c r="B40" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C40:F40),0)</f>
+      <c r="B40">
+        <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>130</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>196</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>147</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="G40" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23918128654970761</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="2"/>
+        <v>1.41E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>580</v>
       </c>
-      <c r="B41" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C41:F41),0)</f>
+      <c r="B41">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>37</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>76</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>66</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="G41" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23505747126436782</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="2"/>
+        <v>6.0999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>590</v>
       </c>
-      <c r="B42" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C42:F42),0)</f>
+      <c r="B42">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>95</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>41</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>82</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="G42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23107344632768362</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>600</v>
       </c>
-      <c r="B43" s="0" t="n">
-        <f aca="false">ROUND(AVERAGE(C43:F43),0)</f>
+      <c r="B43">
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>47</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>44</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>152</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43">
         <v>214</v>
       </c>
+      <c r="G43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22722222222222221</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="2"/>
+        <v>1.14E-3</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
